--- a/Documents/Music_Visualizer_BOM.xlsx
+++ b/Documents/Music_Visualizer_BOM.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C2FCF0-54EA-47C4-833D-F90A23A3CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EC930-D0B8-4BC8-A9BD-D9B69D46133E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music_Visualizer_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="0201s" sheetId="2" r:id="rId2"/>
+    <sheet name="S0201 replacements" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="475">
   <si>
     <t>Comment</t>
   </si>
@@ -235,15 +250,6 @@
     <t>C47,C48,C49,C52,C53,C57,C58</t>
   </si>
   <si>
-    <t>399-C0402C101K8RACAUTOCT-ND</t>
-  </si>
-  <si>
-    <t>C0402C101K8RACAUTO</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/kemet/C0402C101K8RACAUTO/16524895?s=N4IgTCBcDaIAQGEAMAWJYEEYmYNIA4AlAQQWIFUAVAeRAF0BfIA</t>
-  </si>
-  <si>
     <t>75n</t>
   </si>
   <si>
@@ -1445,12 +1451,21 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/cui-devices/SJ-3523-SMT-TR/281297</t>
+  </si>
+  <si>
+    <t>587-GMK105CC6105KV-FTR-ND</t>
+  </si>
+  <si>
+    <t>GMK105CC6105KV-F</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/GMK105CC6105KV-F/13688729?s=N4IgTCBcDaIKwA4DsBaA4gWQNIEYAMcAwoQGz5xYBqKAYgCoBKKAcgCIgC6AvkA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1981,7 +1996,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2290,14 +2305,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2661,27 +2683,27 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>472</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="G13" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H13" s="1">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -2690,10 +2712,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1">
         <v>0.92</v>
@@ -2702,15 +2724,15 @@
         <v>1.84</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -2719,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>885012206074</v>
@@ -2731,7 +2753,7 @@
         <v>0.15</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2739,16 +2761,16 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>860010372006</v>
@@ -2760,15 +2782,15 @@
         <v>0.16</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -2777,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1">
         <v>0.36</v>
@@ -2789,7 +2811,7 @@
         <v>0.36</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2797,16 +2819,16 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>860010372001</v>
@@ -2818,15 +2840,15 @@
         <v>0.15</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2835,10 +2857,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1">
         <v>0.15</v>
@@ -2847,15 +2869,15 @@
         <v>2.25</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2864,10 +2886,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1">
         <v>0.56000000000000005</v>
@@ -2876,15 +2898,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2893,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1">
         <v>0.4</v>
@@ -2905,27 +2927,27 @@
         <v>0.8</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G22" s="1">
         <v>1.49</v>
@@ -2935,27 +2957,27 @@
         <v>1.49</v>
       </c>
       <c r="I22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>114</v>
       </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>117</v>
-      </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G23" s="1">
         <v>2.19</v>
@@ -2964,24 +2986,24 @@
         <v>2.19</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>119</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>122</v>
       </c>
       <c r="F24">
         <v>1725656</v>
@@ -2993,27 +3015,27 @@
         <v>2.96</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>124</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
       </c>
       <c r="G25" s="1">
         <v>0.19</v>
@@ -3022,27 +3044,27 @@
         <v>0.19</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1">
         <v>0.8</v>
@@ -3051,259 +3073,259 @@
         <v>0.8</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I27" t="s">
         <v>137</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="G28" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I28" t="s">
         <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
         <v>146</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G29" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I29" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
         <v>151</v>
       </c>
-      <c r="B30" t="s">
+      <c r="G30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I30" t="s">
         <v>152</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
         <v>156</v>
       </c>
-      <c r="B31" t="s">
+      <c r="G31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I31" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I31" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I32" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
         <v>166</v>
       </c>
-      <c r="B33" t="s">
+      <c r="G33" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I33" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
         <v>171</v>
       </c>
-      <c r="B34" t="s">
+      <c r="G34" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I34" t="s">
         <v>172</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G35" s="1">
         <v>0.16</v>
@@ -3312,56 +3334,56 @@
         <v>0.64</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
         <v>181</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I36" t="s">
         <v>182</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G37" s="1">
         <v>0.16</v>
@@ -3370,85 +3392,85 @@
         <v>0.48</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
         <v>191</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I38" t="s">
         <v>192</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
         <v>196</v>
       </c>
-      <c r="B39" t="s">
+      <c r="G39" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I39" t="s">
         <v>197</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G40" s="1">
         <v>0.16</v>
@@ -3457,201 +3479,201 @@
         <v>0.48</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
         <v>206</v>
       </c>
-      <c r="B41" t="s">
+      <c r="G41" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I41" t="s">
         <v>207</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" t="s">
-        <v>209</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
         <v>211</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G42" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I42" t="s">
         <v>212</v>
-      </c>
-      <c r="C42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" t="s">
-        <v>214</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" t="s">
         <v>216</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I43" t="s">
         <v>217</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" t="s">
-        <v>219</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
         <v>221</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I44" t="s">
         <v>222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" t="s">
-        <v>224</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" t="s">
         <v>226</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I45" t="s">
         <v>227</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" t="s">
-        <v>229</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="s">
         <v>231</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G46" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I46" t="s">
         <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>233</v>
-      </c>
-      <c r="F46" t="s">
-        <v>234</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G47" s="1">
         <v>0.16</v>
@@ -3660,114 +3682,114 @@
         <v>0.32</v>
       </c>
       <c r="I47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
         <v>241</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G48" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I48" t="s">
         <v>242</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
         <v>246</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I49" t="s">
         <v>247</v>
-      </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" t="s">
         <v>251</v>
       </c>
-      <c r="B50" t="s">
+      <c r="G50" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I50" t="s">
         <v>252</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I50" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G51" s="1">
         <v>0.16</v>
@@ -3776,85 +3798,85 @@
         <v>0.32</v>
       </c>
       <c r="I51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" t="s">
         <v>261</v>
       </c>
-      <c r="B52" t="s">
+      <c r="G52" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I52" t="s">
         <v>262</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" t="s">
         <v>266</v>
       </c>
-      <c r="B53" t="s">
+      <c r="G53" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I53" t="s">
         <v>267</v>
-      </c>
-      <c r="C53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G54" s="1">
         <v>0.16</v>
@@ -3863,27 +3885,27 @@
         <v>0.32</v>
       </c>
       <c r="I54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G55" s="1">
         <v>0.16</v>
@@ -3892,259 +3914,259 @@
         <v>0.48</v>
       </c>
       <c r="I55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
         <v>281</v>
       </c>
-      <c r="B56" t="s">
+      <c r="G56" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I56" t="s">
         <v>282</v>
-      </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I56" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="B57" t="s">
+      <c r="G57" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I57" t="s">
         <v>287</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>288</v>
-      </c>
-      <c r="F57" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I57" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
         <v>291</v>
       </c>
-      <c r="B58" t="s">
+      <c r="G58" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I58" t="s">
         <v>292</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" t="s">
-        <v>294</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F59" t="s">
         <v>296</v>
       </c>
-      <c r="B59" t="s">
+      <c r="G59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I59" t="s">
         <v>297</v>
-      </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" t="s">
-        <v>299</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I59" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" t="s">
         <v>301</v>
       </c>
-      <c r="B60" t="s">
+      <c r="G60" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I60" t="s">
         <v>302</v>
-      </c>
-      <c r="C60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>303</v>
-      </c>
-      <c r="F60" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" t="s">
         <v>306</v>
       </c>
-      <c r="B61" t="s">
+      <c r="G61" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I61" t="s">
         <v>307</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>308</v>
-      </c>
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I61" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" t="s">
         <v>311</v>
       </c>
-      <c r="B62" t="s">
+      <c r="G62" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I62" t="s">
         <v>312</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>313</v>
-      </c>
-      <c r="F62" t="s">
-        <v>314</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I62" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" t="s">
         <v>316</v>
       </c>
-      <c r="B63" t="s">
+      <c r="G63" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I63" t="s">
         <v>317</v>
-      </c>
-      <c r="C63" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F63" t="s">
-        <v>319</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G64" s="1">
         <v>0.16</v>
@@ -4153,346 +4175,346 @@
         <v>0.32</v>
       </c>
       <c r="I64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" t="s">
+        <v>324</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" t="s">
         <v>326</v>
       </c>
-      <c r="B65" t="s">
+      <c r="G65" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I65" t="s">
         <v>327</v>
-      </c>
-      <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F65" t="s">
-        <v>329</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I65" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>330</v>
+      </c>
+      <c r="F66" t="s">
         <v>331</v>
       </c>
-      <c r="B66" t="s">
+      <c r="G66" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I66" t="s">
         <v>332</v>
-      </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>333</v>
-      </c>
-      <c r="F66" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I66" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67" t="s">
         <v>336</v>
       </c>
-      <c r="B67" t="s">
+      <c r="G67" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I67" t="s">
         <v>337</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>338</v>
-      </c>
-      <c r="F67" t="s">
-        <v>339</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I67" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" t="s">
         <v>341</v>
       </c>
-      <c r="B68" t="s">
+      <c r="G68" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I68" t="s">
         <v>342</v>
-      </c>
-      <c r="C68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" t="s">
-        <v>344</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>346</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>347</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I69" t="s">
         <v>348</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>349</v>
-      </c>
-      <c r="F69" t="s">
-        <v>350</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I69" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" t="s">
         <v>352</v>
       </c>
-      <c r="B70" t="s">
+      <c r="G70" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I70" t="s">
         <v>353</v>
-      </c>
-      <c r="C70" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>354</v>
-      </c>
-      <c r="F70" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" t="s">
+        <v>355</v>
+      </c>
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>356</v>
+      </c>
+      <c r="F71" t="s">
         <v>357</v>
       </c>
-      <c r="B71" t="s">
+      <c r="G71" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I71" t="s">
         <v>358</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>359</v>
-      </c>
-      <c r="F71" t="s">
-        <v>360</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I71" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>359</v>
+      </c>
+      <c r="B72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>361</v>
+      </c>
+      <c r="F72" t="s">
         <v>362</v>
       </c>
-      <c r="B72" t="s">
+      <c r="G72" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I72" t="s">
         <v>363</v>
-      </c>
-      <c r="C72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>364</v>
-      </c>
-      <c r="F72" t="s">
-        <v>365</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I72" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>366</v>
+      </c>
+      <c r="F73" t="s">
         <v>367</v>
       </c>
-      <c r="B73" t="s">
+      <c r="G73" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I73" t="s">
         <v>368</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>369</v>
-      </c>
-      <c r="F73" t="s">
-        <v>370</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I73" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>369</v>
+      </c>
+      <c r="B74" t="s">
+        <v>370</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" t="s">
         <v>372</v>
       </c>
-      <c r="B74" t="s">
+      <c r="G74" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I74" t="s">
         <v>373</v>
-      </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>374</v>
-      </c>
-      <c r="F74" t="s">
-        <v>375</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>376</v>
+      </c>
+      <c r="F75" t="s">
         <v>377</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I75" t="s">
         <v>378</v>
-      </c>
-      <c r="C75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>379</v>
-      </c>
-      <c r="F75" t="s">
-        <v>380</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I75" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D76">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F76" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G76" s="1">
         <v>0.16</v>
@@ -4501,94 +4523,94 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I76" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" t="s">
         <v>387</v>
       </c>
-      <c r="B77" t="s">
+      <c r="G77" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I77" t="s">
         <v>388</v>
-      </c>
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>389</v>
-      </c>
-      <c r="F77" t="s">
-        <v>390</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I77" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" t="s">
+        <v>390</v>
+      </c>
+      <c r="C78" t="s">
+        <v>391</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>392</v>
       </c>
-      <c r="B78" t="s">
+      <c r="F78" t="s">
         <v>393</v>
       </c>
-      <c r="C78" t="s">
+      <c r="G78" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I78" t="s">
         <v>394</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>395</v>
-      </c>
-      <c r="F78" t="s">
-        <v>396</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" t="s">
+        <v>391</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>397</v>
+      </c>
+      <c r="F79" t="s">
         <v>398</v>
       </c>
-      <c r="B79" t="s">
+      <c r="G79" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I79" t="s">
         <v>399</v>
-      </c>
-      <c r="C79" t="s">
-        <v>394</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>400</v>
-      </c>
-      <c r="F79" t="s">
-        <v>401</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I79" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4596,19 +4618,19 @@
         <v>680</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D80">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G80" s="1">
         <v>0.16</v>
@@ -4617,36 +4639,36 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I80" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" t="s">
+        <v>405</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" t="s">
         <v>407</v>
       </c>
-      <c r="B81" t="s">
+      <c r="G81" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I81" t="s">
         <v>408</v>
-      </c>
-      <c r="C81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>409</v>
-      </c>
-      <c r="F81" t="s">
-        <v>410</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I81" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4654,19 +4676,19 @@
         <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G82" s="1">
         <v>0.38</v>
@@ -4675,56 +4697,56 @@
         <v>0.38</v>
       </c>
       <c r="I82" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>413</v>
+      </c>
+      <c r="B83" t="s">
+        <v>414</v>
+      </c>
+      <c r="C83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>415</v>
+      </c>
+      <c r="F83" t="s">
         <v>416</v>
       </c>
-      <c r="B83" t="s">
+      <c r="G83" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I83" t="s">
         <v>417</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>418</v>
-      </c>
-      <c r="F83" t="s">
-        <v>419</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I83" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" t="s">
+        <v>419</v>
+      </c>
+      <c r="C84" t="s">
+        <v>420</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
         <v>421</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
         <v>422</v>
-      </c>
-      <c r="C84" t="s">
-        <v>423</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>424</v>
-      </c>
-      <c r="F84" t="s">
-        <v>425</v>
       </c>
       <c r="G84" s="1">
         <v>1.45</v>
@@ -4733,27 +4755,27 @@
         <v>1.45</v>
       </c>
       <c r="I84" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" t="s">
+        <v>425</v>
+      </c>
+      <c r="C85" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>426</v>
+      </c>
+      <c r="F85" t="s">
         <v>427</v>
-      </c>
-      <c r="B85" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" t="s">
-        <v>423</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>429</v>
-      </c>
-      <c r="F85" t="s">
-        <v>430</v>
       </c>
       <c r="G85" s="1">
         <v>1.45</v>
@@ -4762,27 +4784,27 @@
         <v>1.45</v>
       </c>
       <c r="I85" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>429</v>
+      </c>
+      <c r="B86" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" t="s">
+        <v>431</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
         <v>432</v>
       </c>
-      <c r="B86" t="s">
+      <c r="F86" t="s">
         <v>433</v>
-      </c>
-      <c r="C86" t="s">
-        <v>434</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>435</v>
-      </c>
-      <c r="F86" t="s">
-        <v>436</v>
       </c>
       <c r="G86" s="1">
         <v>0.87</v>
@@ -4791,27 +4813,27 @@
         <v>0.87</v>
       </c>
       <c r="I86" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>435</v>
+      </c>
+      <c r="B87" t="s">
+        <v>436</v>
+      </c>
+      <c r="C87" t="s">
+        <v>437</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
         <v>438</v>
       </c>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
         <v>439</v>
-      </c>
-      <c r="C87" t="s">
-        <v>440</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>441</v>
-      </c>
-      <c r="F87" t="s">
-        <v>442</v>
       </c>
       <c r="G87" s="1">
         <v>1.66</v>
@@ -4820,27 +4842,27 @@
         <v>1.66</v>
       </c>
       <c r="I87" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D88">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G88" s="1">
         <v>0.61</v>
@@ -4849,27 +4871,27 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="I88" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>450</v>
       </c>
-      <c r="B89" t="s">
-        <v>451</v>
-      </c>
-      <c r="C89" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>453</v>
-      </c>
       <c r="F89" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G89" s="1">
         <v>0.9</v>
@@ -4878,27 +4900,27 @@
         <v>0.9</v>
       </c>
       <c r="I89" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" t="s">
+        <v>453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>454</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>455</v>
       </c>
-      <c r="B90" t="s">
-        <v>456</v>
-      </c>
-      <c r="C90" t="s">
-        <v>457</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>458</v>
-      </c>
       <c r="F90" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G90" s="1">
         <v>1.1299999999999999</v>
@@ -4907,27 +4929,27 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I90" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>457</v>
+      </c>
+      <c r="B91" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
         <v>460</v>
       </c>
-      <c r="B91" t="s">
+      <c r="F91" t="s">
         <v>461</v>
-      </c>
-      <c r="C91" t="s">
-        <v>462</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>463</v>
-      </c>
-      <c r="F91" t="s">
-        <v>464</v>
       </c>
       <c r="G91" s="1">
         <v>4.1100000000000003</v>
@@ -4936,27 +4958,27 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="I91" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>463</v>
+      </c>
+      <c r="B92" t="s">
+        <v>464</v>
+      </c>
+      <c r="C92" t="s">
+        <v>465</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>466</v>
       </c>
-      <c r="B92" t="s">
+      <c r="F92" t="s">
         <v>467</v>
-      </c>
-      <c r="C92" t="s">
-        <v>468</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>469</v>
-      </c>
-      <c r="F92" t="s">
-        <v>470</v>
       </c>
       <c r="G92" s="1">
         <v>0.85</v>
@@ -4965,17 +4987,2466 @@
         <v>0.85</v>
       </c>
       <c r="I92" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H93" s="1">
         <f>SUM(H2:H92)</f>
-        <v>55.069999999999929</v>
+        <v>54.999999999999936</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3BD2DA-BBAB-4790-92A6-23F5E1674EA0}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" t="s">
+        <v>331</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>366</v>
+      </c>
+      <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" t="s">
+        <v>405</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>406</v>
+      </c>
+      <c r="F56" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" t="s">
+        <v>416</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68457E54-D772-4DE5-8294-89212320B20A}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s">
+        <v>414</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Music_Visualizer_BOM.xlsx
+++ b/Documents/Music_Visualizer_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EC930-D0B8-4BC8-A9BD-D9B69D46133E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E37690-304C-434F-AB0F-477897FE129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music_Visualizer_BOM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="644">
   <si>
     <t>Comment</t>
   </si>
@@ -1460,6 +1460,513 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/GMK105CC6105KV-F/13688729?s=N4IgTCBcDaIKwA4DsBaA4gWQNIEYAMcAwoQGz5xYBqKAYgCoBKKAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>1292-1445-1-ND</t>
+  </si>
+  <si>
+    <t>0603B473J250CT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/walsin-technology-corporation/0603B473J250CT/9354942</t>
+  </si>
+  <si>
+    <t>1292-1440-1-ND</t>
+  </si>
+  <si>
+    <t>0603B472J500CT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/walsin-technology-corporation/0603B472J500CT/9354937</t>
+  </si>
+  <si>
+    <t>1292-1521-1-ND</t>
+  </si>
+  <si>
+    <t>0603N332J500CT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/walsin-technology-corporation/0603N332J500CT/9355018</t>
+  </si>
+  <si>
+    <t>1276-1091-1-ND</t>
+  </si>
+  <si>
+    <t>CL10C102JB8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10C102JB8NNNC/3886749</t>
+  </si>
+  <si>
+    <t>SMD: 0603</t>
+  </si>
+  <si>
+    <t>311-84.5KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0784K5L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0784K5L/727408</t>
+  </si>
+  <si>
+    <t>311-110KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07110KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07110KL/726905</t>
+  </si>
+  <si>
+    <t>311-162KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07162KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07162KL/726975</t>
+  </si>
+  <si>
+    <t>311-118KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07118KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07118KL/726911</t>
+  </si>
+  <si>
+    <t>311-63.4KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0763K4L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0763K4L/727340</t>
+  </si>
+  <si>
+    <t>311-62.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0762KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0762KL/727336</t>
+  </si>
+  <si>
+    <t>311-309KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07309KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07309KL/727149</t>
+  </si>
+  <si>
+    <t>311-68.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0768KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0768KL/727352</t>
+  </si>
+  <si>
+    <t>311-66.5KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0766K5L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0766K5L/727348</t>
+  </si>
+  <si>
+    <t>311-332KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07332KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07332KL/727165</t>
+  </si>
+  <si>
+    <t>311-160KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07160KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07160KL/726973</t>
+  </si>
+  <si>
+    <t>311-137KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07137KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07137KL/726939</t>
+  </si>
+  <si>
+    <t>311-45.3KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0745K3L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0745K3L/727245</t>
+  </si>
+  <si>
+    <t>311-270KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07270KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07270KL/727104</t>
+  </si>
+  <si>
+    <t>RMCF0603FT143KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT143K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0603FT143K/1761301</t>
+  </si>
+  <si>
+    <t>311-19.1KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0719K1L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0719K1L/727001</t>
+  </si>
+  <si>
+    <t>311-590KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07590KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07590KL/727315</t>
+  </si>
+  <si>
+    <t>311-140KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07140KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07140KL/726947</t>
+  </si>
+  <si>
+    <t>311-18.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0718K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0718K7L/726993</t>
+  </si>
+  <si>
+    <t>311-576KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07576KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07576KL/727311</t>
+  </si>
+  <si>
+    <t>311-100KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07100KL/726889</t>
+  </si>
+  <si>
+    <t>311-169KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07169KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07169KL/726979</t>
+  </si>
+  <si>
+    <t>311-33.2HRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0733R2L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0733R2L/727160</t>
+  </si>
+  <si>
+    <t>13-RC0603FR-1356KLCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-1356KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-1356KL/14286513</t>
+  </si>
+  <si>
+    <t>311-48.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0748K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0748K7L/727261</t>
+  </si>
+  <si>
+    <t>311-57.6KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0757K6L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0757K6L/727309</t>
+  </si>
+  <si>
+    <t>311-324KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07324KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07324KL/727157</t>
+  </si>
+  <si>
+    <t>311-78.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0778K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0778K7L/727386</t>
+  </si>
+  <si>
+    <t>311-90.9KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0790K9L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0790K9L/727424</t>
+  </si>
+  <si>
+    <t>311-26.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0726K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0726K7L/727094</t>
+  </si>
+  <si>
+    <t>311-59.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0759KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0759KL/727313</t>
+  </si>
+  <si>
+    <t>RC0603FR-077K87L</t>
+  </si>
+  <si>
+    <t>311-7.87KHRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-077K87L/727368</t>
+  </si>
+  <si>
+    <t>311-243KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07243KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07243KL/727084</t>
+  </si>
+  <si>
+    <t>311-107KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07107KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07107KL/726895</t>
+  </si>
+  <si>
+    <t>311-14.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0714K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0714K7L/726945</t>
+  </si>
+  <si>
+    <t>311-453KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07453KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07453KL/727247</t>
+  </si>
+  <si>
+    <t>311-7.32KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-077K32L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-077K32L/727364</t>
+  </si>
+  <si>
+    <t>311-37.4KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0737K4L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0737K4L/727187</t>
+  </si>
+  <si>
+    <t>311-2.87KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K87L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K87L/727036</t>
+  </si>
+  <si>
+    <t>311-95.3KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0795K3L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0795K3L/727436</t>
+  </si>
+  <si>
+    <t>311-4.02KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K02L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-074K02L/727203</t>
+  </si>
+  <si>
+    <t>311-383KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07383KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07383KL/727193</t>
+  </si>
+  <si>
+    <t>311-22.6KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0722K6L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0722K6L/727060</t>
+  </si>
+  <si>
+    <t>311-402KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07402KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07402KL/727223</t>
+  </si>
+  <si>
+    <t>311-8.06KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-078K06L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-078K06L/727389</t>
+  </si>
+  <si>
+    <t>311-4.32KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K32L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-074K32L/727207</t>
+  </si>
+  <si>
+    <t>311-19.6KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0719K6L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0719K6L/727003</t>
+  </si>
+  <si>
+    <t>311-10.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0710K7L/726887</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD1K00CT-ND</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD1K00</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0603FTD1K00/2240106</t>
+  </si>
+  <si>
+    <t>YAG3330CT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0786R6L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0786R6L/5281190</t>
+  </si>
+  <si>
+    <t>311-35.7KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0735K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-0735K7L/727175</t>
+  </si>
+  <si>
+    <t>311-390KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07390KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-07390KL/727199</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,6 +2107,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2309,7 +2822,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,7 +5520,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I57"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6679,14 +7192,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68457E54-D772-4DE5-8294-89212320B20A}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -6725,11 +7240,28 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>487</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>D2*G2</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6738,11 +7270,28 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3*G3</f>
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6751,11 +7300,28 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
+      <c r="C4" t="s">
+        <v>487</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4*G4</f>
+        <v>0.2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6764,11 +7330,28 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5*G5</f>
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6777,11 +7360,28 @@
       <c r="B6" t="s">
         <v>133</v>
       </c>
+      <c r="C6" t="s">
+        <v>487</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1">
+        <f>D6*G6</f>
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6790,11 +7390,28 @@
       <c r="B7" t="s">
         <v>139</v>
       </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>D7*G7</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6803,11 +7420,28 @@
       <c r="B8" t="s">
         <v>144</v>
       </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1">
+        <f>D8*G8</f>
+        <v>0.1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6816,11 +7450,28 @@
       <c r="B9" t="s">
         <v>149</v>
       </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1">
+        <f>D9*G9</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6829,11 +7480,28 @@
       <c r="B10" t="s">
         <v>154</v>
       </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1">
+        <f>D10*G10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6842,11 +7510,28 @@
       <c r="B11" t="s">
         <v>159</v>
       </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1">
+        <f>D11*G11</f>
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6855,11 +7540,28 @@
       <c r="B12" t="s">
         <v>164</v>
       </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1">
+        <f>D12*G12</f>
+        <v>0.1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6868,11 +7570,28 @@
       <c r="B13" t="s">
         <v>169</v>
       </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1">
+        <f>D13*G13</f>
+        <v>0.1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6881,11 +7600,28 @@
       <c r="B14" t="s">
         <v>174</v>
       </c>
+      <c r="C14" t="s">
+        <v>487</v>
+      </c>
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F14" t="s">
+        <v>513</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H26" si="0">D14*G14</f>
+        <v>0.4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6894,11 +7630,28 @@
       <c r="B15" t="s">
         <v>179</v>
       </c>
+      <c r="C15" t="s">
+        <v>487</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" t="s">
+        <v>516</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6907,546 +7660,1262 @@
       <c r="B16" t="s">
         <v>184</v>
       </c>
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>518</v>
+      </c>
+      <c r="F16" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17" t="s">
         <v>189</v>
       </c>
+      <c r="C17" t="s">
+        <v>487</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>194</v>
       </c>
+      <c r="C18" t="s">
+        <v>487</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" t="s">
+        <v>525</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>199</v>
       </c>
+      <c r="C19" t="s">
+        <v>487</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>203</v>
       </c>
       <c r="B20" t="s">
         <v>204</v>
       </c>
+      <c r="C20" t="s">
+        <v>487</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" t="s">
+        <v>531</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
       <c r="B21" t="s">
         <v>209</v>
       </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>533</v>
+      </c>
+      <c r="F21" t="s">
+        <v>534</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>213</v>
       </c>
       <c r="B22" t="s">
         <v>214</v>
       </c>
+      <c r="C22" t="s">
+        <v>487</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>536</v>
+      </c>
+      <c r="F22" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>219</v>
       </c>
+      <c r="C23" t="s">
+        <v>487</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>539</v>
+      </c>
+      <c r="F23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
       <c r="B24" t="s">
         <v>224</v>
       </c>
+      <c r="C24" t="s">
+        <v>487</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" t="s">
+        <v>543</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>229</v>
       </c>
+      <c r="C25" t="s">
+        <v>487</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>545</v>
+      </c>
+      <c r="F25" t="s">
+        <v>546</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>233</v>
       </c>
       <c r="B26" t="s">
         <v>234</v>
       </c>
+      <c r="C26" t="s">
+        <v>487</v>
+      </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>548</v>
+      </c>
+      <c r="F26" t="s">
+        <v>549</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="1">
+        <f>D26*G26</f>
+        <v>0.2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>238</v>
       </c>
       <c r="B27" t="s">
         <v>239</v>
       </c>
+      <c r="C27" t="s">
+        <v>487</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>551</v>
+      </c>
+      <c r="F27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="1">
+        <f>D27*G27</f>
+        <v>0.1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>243</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
+      <c r="C28" t="s">
+        <v>487</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>554</v>
+      </c>
+      <c r="F28" t="s">
+        <v>555</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:H57" si="1">D28*G28</f>
+        <v>0.1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>248</v>
       </c>
       <c r="B29" t="s">
         <v>249</v>
       </c>
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>557</v>
+      </c>
+      <c r="F29" t="s">
+        <v>558</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>254</v>
       </c>
+      <c r="C30" t="s">
+        <v>487</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" t="s">
+        <v>561</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>258</v>
       </c>
       <c r="B31" t="s">
         <v>259</v>
       </c>
+      <c r="C31" t="s">
+        <v>487</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>263</v>
       </c>
       <c r="B32" t="s">
         <v>264</v>
       </c>
+      <c r="C32" t="s">
+        <v>487</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>566</v>
+      </c>
+      <c r="F32" t="s">
+        <v>567</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>268</v>
       </c>
       <c r="B33" t="s">
         <v>269</v>
       </c>
+      <c r="C33" t="s">
+        <v>487</v>
+      </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33" t="s">
+        <v>570</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>273</v>
       </c>
       <c r="B34" t="s">
         <v>274</v>
       </c>
+      <c r="C34" t="s">
+        <v>487</v>
+      </c>
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>572</v>
+      </c>
+      <c r="F34" t="s">
+        <v>573</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>279</v>
       </c>
+      <c r="C35" t="s">
+        <v>487</v>
+      </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>575</v>
+      </c>
+      <c r="F35" t="s">
+        <v>576</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>283</v>
       </c>
       <c r="B36" t="s">
         <v>284</v>
       </c>
+      <c r="C36" t="s">
+        <v>487</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>578</v>
+      </c>
+      <c r="F36" t="s">
+        <v>579</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>288</v>
       </c>
       <c r="B37" t="s">
         <v>289</v>
       </c>
+      <c r="C37" t="s">
+        <v>487</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>582</v>
+      </c>
+      <c r="F37" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>293</v>
       </c>
       <c r="B38" t="s">
         <v>294</v>
       </c>
+      <c r="C38" t="s">
+        <v>487</v>
+      </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>584</v>
+      </c>
+      <c r="F38" t="s">
+        <v>585</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>298</v>
       </c>
       <c r="B39" t="s">
         <v>299</v>
       </c>
+      <c r="C39" t="s">
+        <v>487</v>
+      </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>587</v>
+      </c>
+      <c r="F39" t="s">
+        <v>588</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>303</v>
       </c>
       <c r="B40" t="s">
         <v>304</v>
       </c>
+      <c r="C40" t="s">
+        <v>487</v>
+      </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>590</v>
+      </c>
+      <c r="F40" t="s">
+        <v>591</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>308</v>
       </c>
       <c r="B41" t="s">
         <v>309</v>
       </c>
+      <c r="C41" t="s">
+        <v>487</v>
+      </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>593</v>
+      </c>
+      <c r="F41" t="s">
+        <v>594</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>313</v>
       </c>
       <c r="B42" t="s">
         <v>314</v>
       </c>
+      <c r="C42" t="s">
+        <v>487</v>
+      </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>596</v>
+      </c>
+      <c r="F42" t="s">
+        <v>597</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>319</v>
       </c>
+      <c r="C43" t="s">
+        <v>487</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>599</v>
+      </c>
+      <c r="F43" t="s">
+        <v>600</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>323</v>
       </c>
       <c r="B44" t="s">
         <v>324</v>
       </c>
+      <c r="C44" t="s">
+        <v>487</v>
+      </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>602</v>
+      </c>
+      <c r="F44" t="s">
+        <v>603</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>328</v>
       </c>
       <c r="B45" t="s">
         <v>329</v>
       </c>
+      <c r="C45" t="s">
+        <v>487</v>
+      </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>605</v>
+      </c>
+      <c r="F45" t="s">
+        <v>606</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>333</v>
       </c>
       <c r="B46" t="s">
         <v>334</v>
       </c>
+      <c r="C46" t="s">
+        <v>487</v>
+      </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>608</v>
+      </c>
+      <c r="F46" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>338</v>
       </c>
       <c r="B47" t="s">
         <v>339</v>
       </c>
+      <c r="C47" t="s">
+        <v>487</v>
+      </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>611</v>
+      </c>
+      <c r="F47" t="s">
+        <v>612</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>349</v>
       </c>
       <c r="B48" t="s">
         <v>350</v>
       </c>
+      <c r="C48" t="s">
+        <v>487</v>
+      </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>614</v>
+      </c>
+      <c r="F48" t="s">
+        <v>615</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>354</v>
       </c>
       <c r="B49" t="s">
         <v>355</v>
       </c>
+      <c r="C49" t="s">
+        <v>487</v>
+      </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>617</v>
+      </c>
+      <c r="F49" t="s">
+        <v>618</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>359</v>
       </c>
       <c r="B50" t="s">
         <v>360</v>
       </c>
+      <c r="C50" t="s">
+        <v>487</v>
+      </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>620</v>
+      </c>
+      <c r="F50" t="s">
+        <v>621</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>364</v>
       </c>
       <c r="B51" t="s">
         <v>365</v>
       </c>
+      <c r="C51" t="s">
+        <v>487</v>
+      </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>623</v>
+      </c>
+      <c r="F51" t="s">
+        <v>624</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>369</v>
       </c>
       <c r="B52" t="s">
         <v>370</v>
       </c>
+      <c r="C52" t="s">
+        <v>487</v>
+      </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>626</v>
+      </c>
+      <c r="F52" t="s">
+        <v>627</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>374</v>
       </c>
       <c r="B53" t="s">
         <v>375</v>
       </c>
+      <c r="C53" t="s">
+        <v>487</v>
+      </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>629</v>
+      </c>
+      <c r="F53" t="s">
+        <v>630</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>379</v>
       </c>
       <c r="B54" t="s">
         <v>380</v>
       </c>
+      <c r="C54" t="s">
+        <v>487</v>
+      </c>
       <c r="D54">
         <v>7</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>632</v>
+      </c>
+      <c r="F54" t="s">
+        <v>633</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>384</v>
       </c>
       <c r="B55" t="s">
         <v>385</v>
       </c>
+      <c r="C55" t="s">
+        <v>487</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>635</v>
+      </c>
+      <c r="F55" t="s">
+        <v>636</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>404</v>
       </c>
       <c r="B56" t="s">
         <v>405</v>
       </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>638</v>
+      </c>
+      <c r="F56" t="s">
+        <v>639</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>413</v>
       </c>
       <c r="B57" t="s">
         <v>414</v>
       </c>
+      <c r="C57" t="s">
+        <v>487</v>
+      </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="E57" t="s">
+        <v>641</v>
+      </c>
+      <c r="F57" t="s">
+        <v>642</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>643</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Music_Visualizer_BOM.xlsx
+++ b/Documents/Music_Visualizer_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E37690-304C-434F-AB0F-477897FE129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298627B-B041-45E0-8303-361480EDC5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music_Visualizer_BOM" sheetId="1" r:id="rId1"/>
@@ -2821,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7192,8 +7192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68457E54-D772-4DE5-8294-89212320B20A}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7256,7 +7256,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1">
-        <f>D2*G2</f>
+        <f t="shared" ref="H2:H13" si="0">D2*G2</f>
         <v>0.2</v>
       </c>
       <c r="I2" t="s">
@@ -7286,7 +7286,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <f>D3*G3</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="I3" t="s">
@@ -7316,7 +7316,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <f>D4*G4</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="I4" t="s">
@@ -7346,7 +7346,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1">
-        <f>D5*G5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I5" t="s">
@@ -7376,7 +7376,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <f>D6*G6</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I6" t="s">
@@ -7406,7 +7406,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <f>D7*G7</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I7" t="s">
@@ -7436,7 +7436,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1">
-        <f>D8*G8</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I8" t="s">
@@ -7466,7 +7466,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1">
-        <f>D9*G9</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I9" t="s">
@@ -7496,7 +7496,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1">
-        <f>D10*G10</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I10" t="s">
@@ -7526,7 +7526,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <f>D11*G11</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I11" t="s">
@@ -7556,7 +7556,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1">
-        <f>D12*G12</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I12" t="s">
@@ -7586,7 +7586,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1">
-        <f>D13*G13</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I13" t="s">
@@ -7616,7 +7616,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H26" si="0">D14*G14</f>
+        <f t="shared" ref="H14:H25" si="1">D14*G14</f>
         <v>0.4</v>
       </c>
       <c r="I14" t="s">
@@ -7646,7 +7646,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I15" t="s">
@@ -7676,7 +7676,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I16" t="s">
@@ -7706,7 +7706,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I17" t="s">
@@ -7736,7 +7736,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I18" t="s">
@@ -7766,7 +7766,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I19" t="s">
@@ -7796,7 +7796,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I20" t="s">
@@ -7826,7 +7826,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I21" t="s">
@@ -7856,7 +7856,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I22" t="s">
@@ -7886,7 +7886,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I23" t="s">
@@ -7916,7 +7916,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I24" t="s">
@@ -7946,7 +7946,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I25" t="s">
@@ -8036,7 +8036,7 @@
         <v>0.1</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28:H57" si="1">D28*G28</f>
+        <f t="shared" ref="H28:H57" si="2">D28*G28</f>
         <v>0.1</v>
       </c>
       <c r="I28" t="s">
@@ -8066,7 +8066,7 @@
         <v>0.1</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I29" t="s">
@@ -8096,7 +8096,7 @@
         <v>0.1</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I30" t="s">
@@ -8126,7 +8126,7 @@
         <v>0.1</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I31" t="s">
@@ -8156,7 +8156,7 @@
         <v>0.1</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I32" t="s">
@@ -8186,7 +8186,7 @@
         <v>0.1</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I33" t="s">
@@ -8216,7 +8216,7 @@
         <v>0.1</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I34" t="s">
@@ -8246,7 +8246,7 @@
         <v>0.1</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I35" t="s">
@@ -8276,7 +8276,7 @@
         <v>0.1</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I36" t="s">
@@ -8306,7 +8306,7 @@
         <v>0.1</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I37" t="s">
@@ -8336,7 +8336,7 @@
         <v>0.1</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I38" t="s">
@@ -8366,7 +8366,7 @@
         <v>0.1</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I39" t="s">
@@ -8396,7 +8396,7 @@
         <v>0.1</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I40" t="s">
@@ -8426,7 +8426,7 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I41" t="s">
@@ -8456,7 +8456,7 @@
         <v>0.1</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I42" t="s">
@@ -8486,7 +8486,7 @@
         <v>0.1</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I43" t="s">
@@ -8516,7 +8516,7 @@
         <v>0.1</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I44" t="s">
@@ -8546,7 +8546,7 @@
         <v>0.1</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I45" t="s">
@@ -8576,7 +8576,7 @@
         <v>0.1</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I46" t="s">
@@ -8606,7 +8606,7 @@
         <v>0.1</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I47" t="s">
@@ -8636,7 +8636,7 @@
         <v>0.1</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I48" t="s">
@@ -8666,7 +8666,7 @@
         <v>0.1</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I49" t="s">
@@ -8696,7 +8696,7 @@
         <v>0.1</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I50" t="s">
@@ -8726,7 +8726,7 @@
         <v>0.1</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I51" t="s">
@@ -8756,7 +8756,7 @@
         <v>0.1</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I52" t="s">
@@ -8786,7 +8786,7 @@
         <v>0.1</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I53" t="s">
@@ -8816,7 +8816,7 @@
         <v>0.1</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I54" t="s">
@@ -8846,7 +8846,7 @@
         <v>0.1</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I55" t="s">
@@ -8876,7 +8876,7 @@
         <v>0.1</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I56" t="s">
@@ -8906,7 +8906,7 @@
         <v>0.1</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I57" t="s">
